--- a/assigment Tasks/march 14,22.xlsx
+++ b/assigment Tasks/march 14,22.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
   <si>
     <t>Assigment 1</t>
   </si>
@@ -111,13 +111,58 @@
   </si>
   <si>
     <t xml:space="preserve">Sehar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigment 2 Table </t>
+  </si>
+  <si>
+    <t>15-03-22</t>
+  </si>
+  <si>
+    <t>Ahmed Faraz</t>
+  </si>
+  <si>
+    <t>Assigment 3 Blog</t>
+  </si>
+  <si>
+    <t>16,03,22</t>
+  </si>
+  <si>
+    <t>Muhammad Zeeshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Mujtba </t>
+  </si>
+  <si>
+    <t>Ali Hassan</t>
+  </si>
+  <si>
+    <t>Sana</t>
+  </si>
+  <si>
+    <t>Muhammad Sohaib</t>
+  </si>
+  <si>
+    <t>Abdul hannan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iqra Ashraf </t>
+  </si>
+  <si>
+    <t>Anas Wakeel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Najmul haq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sultan </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +170,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,13 +212,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,30 +519,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F23"/>
+  <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -464,19 +562,28 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -486,41 +593,59 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -530,19 +655,28 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -552,8 +686,14 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -563,8 +703,14 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -574,85 +720,118 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -662,19 +841,28 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -684,22 +872,130 @@
       <c r="D22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>